--- a/Devoloper_files/sample_template/machine_master.xlsx
+++ b/Devoloper_files/sample_template/machine_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokulhari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3755F26F-A2BD-4268-BC99-97B38D767856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B000162C-EB23-436A-8AA7-5A37D17F3952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34155" yWindow="3030" windowWidth="19455" windowHeight="10875" xr2:uid="{01ECBBF3-8BBB-49B8-8E2F-315ED43D8666}"/>
+    <workbookView xWindow="33225" yWindow="3375" windowWidth="22350" windowHeight="13035" xr2:uid="{01ECBBF3-8BBB-49B8-8E2F-315ED43D8666}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,13 +128,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,36 +452,44 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -497,12 +505,12 @@
         <v>10</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -520,7 +528,7 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>75</v>
       </c>
     </row>
